--- a/App/TestData/Example1.xlsx
+++ b/App/TestData/Example1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artyo\Documents\Visual Studio 2015\Projects\DomofonExcelToDbf\ExcelToDbf\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artyo\Documents\Visual Studio 2015\Projects\DomofonExcelToDbf\App\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3AEBED1-7E58-475B-9EDC-90E86A51C99E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1ADAE4-0BD0-4771-A970-97BC6F2AD8F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="315" yWindow="1560" windowWidth="28485" windowHeight="11130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16164" yWindow="3024" windowWidth="18456" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -2003,24 +2003,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L509"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B173" sqref="B173"/>
+    <sheetView tabSelected="1" topLeftCell="A488" workbookViewId="0">
+      <selection activeCell="C504" sqref="C504"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="1" customWidth="1"/>
-    <col min="7" max="11" width="9.140625" style="1"/>
-    <col min="12" max="12" width="9.140625" style="5"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="10.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" style="1" customWidth="1"/>
+    <col min="7" max="11" width="9.109375" style="1"/>
+    <col min="12" max="12" width="9.109375" style="5"/>
+    <col min="13" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="30.75" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:12" ht="30.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="8" t="s">
         <v>501</v>
       </c>
@@ -2029,7 +2029,7 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" ht="16.2" x14ac:dyDescent="0.35">
       <c r="B3" s="10" t="s">
         <v>503</v>
       </c>
@@ -2043,7 +2043,7 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
         <v>502</v>
       </c>
@@ -2052,7 +2052,7 @@
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="2:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>506</v>
       </c>
@@ -2070,7 +2070,7 @@
       </c>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <v>1</v>
       </c>
@@ -2088,7 +2088,7 @@
       </c>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>2</v>
       </c>
@@ -2106,7 +2106,7 @@
       </c>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>3</v>
       </c>
@@ -2124,7 +2124,7 @@
       </c>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>4</v>
       </c>
@@ -2142,7 +2142,7 @@
       </c>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>5</v>
       </c>
@@ -2160,7 +2160,7 @@
       </c>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <v>6</v>
       </c>
@@ -2178,7 +2178,7 @@
       </c>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <v>7</v>
       </c>
@@ -2196,7 +2196,7 @@
       </c>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B15" s="14" t="s">
         <v>507</v>
       </c>
@@ -2206,7 +2206,7 @@
       <c r="F15" s="16"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <v>8</v>
       </c>
@@ -2224,7 +2224,7 @@
       </c>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <v>9</v>
       </c>
@@ -2242,7 +2242,7 @@
       </c>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <v>10</v>
       </c>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <v>11</v>
       </c>
@@ -2278,7 +2278,7 @@
       </c>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <v>12</v>
       </c>
@@ -2296,7 +2296,7 @@
       </c>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <v>13</v>
       </c>
@@ -2314,7 +2314,7 @@
       </c>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <v>14</v>
       </c>
@@ -2332,7 +2332,7 @@
       </c>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <v>15</v>
       </c>
@@ -2350,7 +2350,7 @@
       </c>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <v>16</v>
       </c>
@@ -2368,7 +2368,7 @@
       </c>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
         <v>17</v>
       </c>
@@ -2386,7 +2386,7 @@
       </c>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B26" s="3">
         <v>18</v>
       </c>
@@ -2404,7 +2404,7 @@
       </c>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B27" s="3">
         <v>19</v>
       </c>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B28" s="3">
         <v>20</v>
       </c>
@@ -2440,7 +2440,7 @@
       </c>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B29" s="3">
         <v>21</v>
       </c>
@@ -2458,7 +2458,7 @@
       </c>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B30" s="3">
         <v>22</v>
       </c>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B31" s="3">
         <v>23</v>
       </c>
@@ -2494,7 +2494,7 @@
       </c>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B32" s="3">
         <v>24</v>
       </c>
@@ -2512,7 +2512,7 @@
       </c>
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B33" s="3">
         <v>25</v>
       </c>
@@ -2530,7 +2530,7 @@
       </c>
       <c r="L33" s="1"/>
     </row>
-    <row r="34" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B34" s="3">
         <v>26</v>
       </c>
@@ -2548,7 +2548,7 @@
       </c>
       <c r="L34" s="1"/>
     </row>
-    <row r="35" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B35" s="3">
         <v>27</v>
       </c>
@@ -2566,7 +2566,7 @@
       </c>
       <c r="L35" s="1"/>
     </row>
-    <row r="36" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B36" s="3">
         <v>28</v>
       </c>
@@ -2584,7 +2584,7 @@
       </c>
       <c r="L36" s="1"/>
     </row>
-    <row r="37" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B37" s="3">
         <v>29</v>
       </c>
@@ -2602,7 +2602,7 @@
       </c>
       <c r="L37" s="1"/>
     </row>
-    <row r="38" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B38" s="3">
         <v>30</v>
       </c>
@@ -2620,7 +2620,7 @@
       </c>
       <c r="L38" s="1"/>
     </row>
-    <row r="39" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B39" s="3">
         <v>31</v>
       </c>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="L39" s="1"/>
     </row>
-    <row r="40" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B40" s="14" t="s">
         <v>508</v>
       </c>
@@ -2648,9 +2648,9 @@
       <c r="F40" s="16"/>
       <c r="L40" s="1"/>
     </row>
-    <row r="41" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B41" s="3">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>33</v>
@@ -2666,9 +2666,9 @@
       </c>
       <c r="L41" s="1"/>
     </row>
-    <row r="42" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B42" s="3">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>34</v>
@@ -2684,9 +2684,9 @@
       </c>
       <c r="L42" s="1"/>
     </row>
-    <row r="43" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B43" s="3">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>35</v>
@@ -2702,9 +2702,9 @@
       </c>
       <c r="L43" s="1"/>
     </row>
-    <row r="44" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B44" s="3">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>36</v>
@@ -2720,9 +2720,9 @@
       </c>
       <c r="L44" s="1"/>
     </row>
-    <row r="45" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B45" s="3">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>37</v>
@@ -2738,9 +2738,9 @@
       </c>
       <c r="L45" s="1"/>
     </row>
-    <row r="46" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B46" s="3">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>38</v>
@@ -2756,9 +2756,9 @@
       </c>
       <c r="L46" s="1"/>
     </row>
-    <row r="47" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B47" s="3">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>39</v>
@@ -2774,9 +2774,9 @@
       </c>
       <c r="L47" s="1"/>
     </row>
-    <row r="48" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B48" s="3">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>40</v>
@@ -2792,9 +2792,9 @@
       </c>
       <c r="L48" s="1"/>
     </row>
-    <row r="49" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B49" s="3">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>41</v>
@@ -2810,9 +2810,9 @@
       </c>
       <c r="L49" s="1"/>
     </row>
-    <row r="50" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B50" s="3">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>42</v>
@@ -2828,9 +2828,9 @@
       </c>
       <c r="L50" s="1"/>
     </row>
-    <row r="51" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B51" s="3">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>43</v>
@@ -2846,9 +2846,9 @@
       </c>
       <c r="L51" s="1"/>
     </row>
-    <row r="52" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B52" s="3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>44</v>
@@ -2864,9 +2864,9 @@
       </c>
       <c r="L52" s="1"/>
     </row>
-    <row r="53" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B53" s="3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>45</v>
@@ -2882,9 +2882,9 @@
       </c>
       <c r="L53" s="1"/>
     </row>
-    <row r="54" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B54" s="3">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>46</v>
@@ -2900,9 +2900,9 @@
       </c>
       <c r="L54" s="1"/>
     </row>
-    <row r="55" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B55" s="3">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>47</v>
@@ -2918,9 +2918,9 @@
       </c>
       <c r="L55" s="1"/>
     </row>
-    <row r="56" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B56" s="3">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>48</v>
@@ -2936,9 +2936,9 @@
       </c>
       <c r="L56" s="1"/>
     </row>
-    <row r="57" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B57" s="3">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>49</v>
@@ -2954,9 +2954,9 @@
       </c>
       <c r="L57" s="1"/>
     </row>
-    <row r="58" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B58" s="3">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>50</v>
@@ -2972,9 +2972,9 @@
       </c>
       <c r="L58" s="1"/>
     </row>
-    <row r="59" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B59" s="3">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>51</v>
@@ -2990,9 +2990,9 @@
       </c>
       <c r="L59" s="1"/>
     </row>
-    <row r="60" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B60" s="3">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>52</v>
@@ -3008,9 +3008,9 @@
       </c>
       <c r="L60" s="1"/>
     </row>
-    <row r="61" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B61" s="3">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>53</v>
@@ -3026,9 +3026,9 @@
       </c>
       <c r="L61" s="1"/>
     </row>
-    <row r="62" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B62" s="3">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>54</v>
@@ -3044,9 +3044,9 @@
       </c>
       <c r="L62" s="1"/>
     </row>
-    <row r="63" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B63" s="3">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>55</v>
@@ -3062,9 +3062,9 @@
       </c>
       <c r="L63" s="1"/>
     </row>
-    <row r="64" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B64" s="3">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>56</v>
@@ -3080,9 +3080,9 @@
       </c>
       <c r="L64" s="1"/>
     </row>
-    <row r="65" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B65" s="3">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>57</v>
@@ -3098,9 +3098,9 @@
       </c>
       <c r="L65" s="1"/>
     </row>
-    <row r="66" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B66" s="3">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>58</v>
@@ -3116,9 +3116,9 @@
       </c>
       <c r="L66" s="1"/>
     </row>
-    <row r="67" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B67" s="3">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>59</v>
@@ -3134,9 +3134,9 @@
       </c>
       <c r="L67" s="1"/>
     </row>
-    <row r="68" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B68" s="3">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>60</v>
@@ -3152,9 +3152,9 @@
       </c>
       <c r="L68" s="1"/>
     </row>
-    <row r="69" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B69" s="3">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>61</v>
@@ -3170,9 +3170,9 @@
       </c>
       <c r="L69" s="1"/>
     </row>
-    <row r="70" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B70" s="3">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>62</v>
@@ -3188,9 +3188,9 @@
       </c>
       <c r="L70" s="1"/>
     </row>
-    <row r="71" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B71" s="3">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>63</v>
@@ -3206,9 +3206,9 @@
       </c>
       <c r="L71" s="1"/>
     </row>
-    <row r="72" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B72" s="3">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>64</v>
@@ -3224,9 +3224,9 @@
       </c>
       <c r="L72" s="1"/>
     </row>
-    <row r="73" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B73" s="3">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>65</v>
@@ -3242,9 +3242,9 @@
       </c>
       <c r="L73" s="1"/>
     </row>
-    <row r="74" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B74" s="3">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>66</v>
@@ -3260,9 +3260,9 @@
       </c>
       <c r="L74" s="1"/>
     </row>
-    <row r="75" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B75" s="3">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>67</v>
@@ -3278,9 +3278,9 @@
       </c>
       <c r="L75" s="1"/>
     </row>
-    <row r="76" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B76" s="3">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>68</v>
@@ -3296,9 +3296,9 @@
       </c>
       <c r="L76" s="1"/>
     </row>
-    <row r="77" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B77" s="3">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>69</v>
@@ -3314,9 +3314,9 @@
       </c>
       <c r="L77" s="1"/>
     </row>
-    <row r="78" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B78" s="3">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>70</v>
@@ -3332,9 +3332,9 @@
       </c>
       <c r="L78" s="1"/>
     </row>
-    <row r="79" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B79" s="3">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>71</v>
@@ -3350,9 +3350,9 @@
       </c>
       <c r="L79" s="1"/>
     </row>
-    <row r="80" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B80" s="3">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>72</v>
@@ -3368,9 +3368,9 @@
       </c>
       <c r="L80" s="1"/>
     </row>
-    <row r="81" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B81" s="3">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>73</v>
@@ -3386,9 +3386,9 @@
       </c>
       <c r="L81" s="1"/>
     </row>
-    <row r="82" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B82" s="3">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>74</v>
@@ -3404,9 +3404,9 @@
       </c>
       <c r="L82" s="1"/>
     </row>
-    <row r="83" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B83" s="3">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>75</v>
@@ -3422,9 +3422,9 @@
       </c>
       <c r="L83" s="1"/>
     </row>
-    <row r="84" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B84" s="3">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>76</v>
@@ -3440,9 +3440,9 @@
       </c>
       <c r="L84" s="1"/>
     </row>
-    <row r="85" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B85" s="3">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>77</v>
@@ -3458,9 +3458,9 @@
       </c>
       <c r="L85" s="1"/>
     </row>
-    <row r="86" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B86" s="3">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>78</v>
@@ -3476,9 +3476,9 @@
       </c>
       <c r="L86" s="1"/>
     </row>
-    <row r="87" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B87" s="3">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>79</v>
@@ -3494,9 +3494,9 @@
       </c>
       <c r="L87" s="1"/>
     </row>
-    <row r="88" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B88" s="3">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>80</v>
@@ -3512,9 +3512,9 @@
       </c>
       <c r="L88" s="1"/>
     </row>
-    <row r="89" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B89" s="3">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>81</v>
@@ -3530,9 +3530,9 @@
       </c>
       <c r="L89" s="1"/>
     </row>
-    <row r="90" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B90" s="3">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>82</v>
@@ -3548,9 +3548,9 @@
       </c>
       <c r="L90" s="1"/>
     </row>
-    <row r="91" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B91" s="3">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>83</v>
@@ -3566,9 +3566,9 @@
       </c>
       <c r="L91" s="1"/>
     </row>
-    <row r="92" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B92" s="3">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>84</v>
@@ -3584,9 +3584,9 @@
       </c>
       <c r="L92" s="1"/>
     </row>
-    <row r="93" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B93" s="3">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>85</v>
@@ -3602,9 +3602,9 @@
       </c>
       <c r="L93" s="1"/>
     </row>
-    <row r="94" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B94" s="3">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>86</v>
@@ -3620,9 +3620,9 @@
       </c>
       <c r="L94" s="1"/>
     </row>
-    <row r="95" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B95" s="3">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>87</v>
@@ -3638,9 +3638,9 @@
       </c>
       <c r="L95" s="1"/>
     </row>
-    <row r="96" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B96" s="3">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>88</v>
@@ -3656,9 +3656,9 @@
       </c>
       <c r="L96" s="1"/>
     </row>
-    <row r="97" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B97" s="3">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>89</v>
@@ -3674,9 +3674,9 @@
       </c>
       <c r="L97" s="1"/>
     </row>
-    <row r="98" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B98" s="3">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>90</v>
@@ -3692,9 +3692,9 @@
       </c>
       <c r="L98" s="1"/>
     </row>
-    <row r="99" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B99" s="3">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>91</v>
@@ -3710,9 +3710,9 @@
       </c>
       <c r="L99" s="1"/>
     </row>
-    <row r="100" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B100" s="3">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>92</v>
@@ -3728,9 +3728,9 @@
       </c>
       <c r="L100" s="1"/>
     </row>
-    <row r="101" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B101" s="3">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>93</v>
@@ -3746,9 +3746,9 @@
       </c>
       <c r="L101" s="1"/>
     </row>
-    <row r="102" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B102" s="3">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>94</v>
@@ -3764,9 +3764,9 @@
       </c>
       <c r="L102" s="1"/>
     </row>
-    <row r="103" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B103" s="3">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>95</v>
@@ -3782,9 +3782,9 @@
       </c>
       <c r="L103" s="1"/>
     </row>
-    <row r="104" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B104" s="3">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>96</v>
@@ -3800,9 +3800,9 @@
       </c>
       <c r="L104" s="1"/>
     </row>
-    <row r="105" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B105" s="3">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>97</v>
@@ -3818,9 +3818,9 @@
       </c>
       <c r="L105" s="1"/>
     </row>
-    <row r="106" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B106" s="3">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>98</v>
@@ -3836,9 +3836,9 @@
       </c>
       <c r="L106" s="1"/>
     </row>
-    <row r="107" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B107" s="3">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>99</v>
@@ -3854,9 +3854,9 @@
       </c>
       <c r="L107" s="1"/>
     </row>
-    <row r="108" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B108" s="3">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>100</v>
@@ -3872,9 +3872,9 @@
       </c>
       <c r="L108" s="1"/>
     </row>
-    <row r="109" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B109" s="3">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>101</v>
@@ -3890,9 +3890,9 @@
       </c>
       <c r="L109" s="1"/>
     </row>
-    <row r="110" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B110" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>102</v>
@@ -3908,9 +3908,9 @@
       </c>
       <c r="L110" s="1"/>
     </row>
-    <row r="111" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B111" s="3">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>103</v>
@@ -3926,9 +3926,9 @@
       </c>
       <c r="L111" s="1"/>
     </row>
-    <row r="112" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B112" s="3">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>104</v>
@@ -3944,9 +3944,9 @@
       </c>
       <c r="L112" s="1"/>
     </row>
-    <row r="113" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B113" s="3">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>105</v>
@@ -3962,9 +3962,9 @@
       </c>
       <c r="L113" s="1"/>
     </row>
-    <row r="114" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B114" s="3">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>106</v>
@@ -3980,9 +3980,9 @@
       </c>
       <c r="L114" s="1"/>
     </row>
-    <row r="115" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B115" s="3">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>107</v>
@@ -3998,9 +3998,9 @@
       </c>
       <c r="L115" s="1"/>
     </row>
-    <row r="116" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B116" s="3">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>108</v>
@@ -4016,9 +4016,9 @@
       </c>
       <c r="L116" s="1"/>
     </row>
-    <row r="117" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B117" s="3">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>109</v>
@@ -4034,9 +4034,9 @@
       </c>
       <c r="L117" s="1"/>
     </row>
-    <row r="118" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B118" s="3">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>110</v>
@@ -4052,9 +4052,9 @@
       </c>
       <c r="L118" s="1"/>
     </row>
-    <row r="119" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B119" s="3">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>111</v>
@@ -4070,9 +4070,9 @@
       </c>
       <c r="L119" s="1"/>
     </row>
-    <row r="120" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B120" s="3">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>112</v>
@@ -4088,9 +4088,9 @@
       </c>
       <c r="L120" s="1"/>
     </row>
-    <row r="121" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B121" s="3">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>113</v>
@@ -4106,9 +4106,9 @@
       </c>
       <c r="L121" s="1"/>
     </row>
-    <row r="122" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B122" s="3">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>114</v>
@@ -4124,9 +4124,9 @@
       </c>
       <c r="L122" s="1"/>
     </row>
-    <row r="123" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B123" s="3">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>115</v>
@@ -4142,9 +4142,9 @@
       </c>
       <c r="L123" s="1"/>
     </row>
-    <row r="124" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B124" s="3">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>116</v>
@@ -4160,9 +4160,9 @@
       </c>
       <c r="L124" s="1"/>
     </row>
-    <row r="125" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B125" s="3">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>117</v>
@@ -4178,9 +4178,9 @@
       </c>
       <c r="L125" s="1"/>
     </row>
-    <row r="126" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B126" s="3">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>118</v>
@@ -4196,9 +4196,9 @@
       </c>
       <c r="L126" s="1"/>
     </row>
-    <row r="127" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B127" s="3">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>119</v>
@@ -4214,9 +4214,9 @@
       </c>
       <c r="L127" s="1"/>
     </row>
-    <row r="128" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B128" s="3">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>120</v>
@@ -4232,9 +4232,9 @@
       </c>
       <c r="L128" s="1"/>
     </row>
-    <row r="129" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B129" s="3">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>121</v>
@@ -4250,9 +4250,9 @@
       </c>
       <c r="L129" s="1"/>
     </row>
-    <row r="130" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B130" s="3">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>122</v>
@@ -4268,9 +4268,9 @@
       </c>
       <c r="L130" s="1"/>
     </row>
-    <row r="131" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B131" s="3">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>123</v>
@@ -4286,9 +4286,9 @@
       </c>
       <c r="L131" s="1"/>
     </row>
-    <row r="132" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B132" s="3">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>124</v>
@@ -4304,9 +4304,9 @@
       </c>
       <c r="L132" s="1"/>
     </row>
-    <row r="133" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B133" s="3">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>125</v>
@@ -4322,9 +4322,9 @@
       </c>
       <c r="L133" s="1"/>
     </row>
-    <row r="134" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B134" s="3">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>126</v>
@@ -4340,9 +4340,9 @@
       </c>
       <c r="L134" s="1"/>
     </row>
-    <row r="135" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B135" s="3">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>127</v>
@@ -4358,9 +4358,9 @@
       </c>
       <c r="L135" s="1"/>
     </row>
-    <row r="136" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B136" s="3">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>128</v>
@@ -4376,9 +4376,9 @@
       </c>
       <c r="L136" s="1"/>
     </row>
-    <row r="137" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B137" s="3">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>129</v>
@@ -4394,9 +4394,9 @@
       </c>
       <c r="L137" s="1"/>
     </row>
-    <row r="138" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B138" s="3">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>130</v>
@@ -4412,9 +4412,9 @@
       </c>
       <c r="L138" s="1"/>
     </row>
-    <row r="139" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B139" s="3">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C139" s="3" t="s">
         <v>131</v>
@@ -4430,9 +4430,9 @@
       </c>
       <c r="L139" s="1"/>
     </row>
-    <row r="140" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B140" s="3">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>132</v>
@@ -4448,9 +4448,9 @@
       </c>
       <c r="L140" s="1"/>
     </row>
-    <row r="141" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B141" s="3">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>133</v>
@@ -4466,9 +4466,9 @@
       </c>
       <c r="L141" s="1"/>
     </row>
-    <row r="142" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B142" s="3">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>134</v>
@@ -4484,9 +4484,9 @@
       </c>
       <c r="L142" s="1"/>
     </row>
-    <row r="143" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B143" s="3">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>135</v>
@@ -4502,9 +4502,9 @@
       </c>
       <c r="L143" s="1"/>
     </row>
-    <row r="144" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B144" s="3">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>136</v>
@@ -4520,9 +4520,9 @@
       </c>
       <c r="L144" s="1"/>
     </row>
-    <row r="145" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B145" s="3">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>137</v>
@@ -4538,9 +4538,9 @@
       </c>
       <c r="L145" s="1"/>
     </row>
-    <row r="146" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B146" s="3">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>138</v>
@@ -4556,9 +4556,9 @@
       </c>
       <c r="L146" s="1"/>
     </row>
-    <row r="147" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B147" s="3">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>139</v>
@@ -4574,9 +4574,9 @@
       </c>
       <c r="L147" s="1"/>
     </row>
-    <row r="148" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B148" s="3">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C148" s="3" t="s">
         <v>140</v>
@@ -4592,9 +4592,9 @@
       </c>
       <c r="L148" s="1"/>
     </row>
-    <row r="149" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B149" s="3">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C149" s="3" t="s">
         <v>141</v>
@@ -4610,9 +4610,9 @@
       </c>
       <c r="L149" s="1"/>
     </row>
-    <row r="150" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B150" s="3">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C150" s="3" t="s">
         <v>142</v>
@@ -4628,9 +4628,9 @@
       </c>
       <c r="L150" s="1"/>
     </row>
-    <row r="151" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B151" s="3">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>143</v>
@@ -4646,9 +4646,9 @@
       </c>
       <c r="L151" s="1"/>
     </row>
-    <row r="152" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B152" s="3">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>144</v>
@@ -4664,9 +4664,9 @@
       </c>
       <c r="L152" s="1"/>
     </row>
-    <row r="153" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B153" s="3">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C153" s="3" t="s">
         <v>145</v>
@@ -4682,9 +4682,9 @@
       </c>
       <c r="L153" s="1"/>
     </row>
-    <row r="154" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B154" s="3">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>146</v>
@@ -4700,9 +4700,9 @@
       </c>
       <c r="L154" s="1"/>
     </row>
-    <row r="155" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B155" s="3">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>147</v>
@@ -4718,9 +4718,9 @@
       </c>
       <c r="L155" s="1"/>
     </row>
-    <row r="156" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B156" s="3">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C156" s="3" t="s">
         <v>148</v>
@@ -4736,9 +4736,9 @@
       </c>
       <c r="L156" s="1"/>
     </row>
-    <row r="157" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B157" s="3">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C157" s="3" t="s">
         <v>149</v>
@@ -4754,9 +4754,9 @@
       </c>
       <c r="L157" s="1"/>
     </row>
-    <row r="158" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B158" s="3">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C158" s="3" t="s">
         <v>150</v>
@@ -4772,9 +4772,9 @@
       </c>
       <c r="L158" s="1"/>
     </row>
-    <row r="159" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B159" s="3">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C159" s="3" t="s">
         <v>151</v>
@@ -4790,9 +4790,9 @@
       </c>
       <c r="L159" s="1"/>
     </row>
-    <row r="160" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B160" s="3">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C160" s="3" t="s">
         <v>152</v>
@@ -4808,9 +4808,9 @@
       </c>
       <c r="L160" s="1"/>
     </row>
-    <row r="161" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B161" s="3">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C161" s="3" t="s">
         <v>153</v>
@@ -4826,9 +4826,9 @@
       </c>
       <c r="L161" s="1"/>
     </row>
-    <row r="162" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B162" s="3">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>154</v>
@@ -4844,9 +4844,9 @@
       </c>
       <c r="L162" s="1"/>
     </row>
-    <row r="163" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B163" s="3">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C163" s="3" t="s">
         <v>155</v>
@@ -4862,9 +4862,9 @@
       </c>
       <c r="L163" s="1"/>
     </row>
-    <row r="164" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B164" s="3">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C164" s="3" t="s">
         <v>156</v>
@@ -4880,9 +4880,9 @@
       </c>
       <c r="L164" s="1"/>
     </row>
-    <row r="165" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B165" s="3">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C165" s="3" t="s">
         <v>157</v>
@@ -4898,9 +4898,9 @@
       </c>
       <c r="L165" s="1"/>
     </row>
-    <row r="166" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B166" s="3">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>158</v>
@@ -4916,9 +4916,9 @@
       </c>
       <c r="L166" s="1"/>
     </row>
-    <row r="167" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B167" s="3">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C167" s="3" t="s">
         <v>159</v>
@@ -4934,9 +4934,9 @@
       </c>
       <c r="L167" s="1"/>
     </row>
-    <row r="168" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B168" s="3">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C168" s="3" t="s">
         <v>160</v>
@@ -4952,9 +4952,9 @@
       </c>
       <c r="L168" s="1"/>
     </row>
-    <row r="169" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B169" s="3">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C169" s="3" t="s">
         <v>161</v>
@@ -4970,9 +4970,9 @@
       </c>
       <c r="L169" s="1"/>
     </row>
-    <row r="170" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B170" s="3">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C170" s="3" t="s">
         <v>162</v>
@@ -4988,9 +4988,9 @@
       </c>
       <c r="L170" s="1"/>
     </row>
-    <row r="171" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B171" s="3">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C171" s="3" t="s">
         <v>163</v>
@@ -5006,7 +5006,7 @@
       </c>
       <c r="L171" s="1"/>
     </row>
-    <row r="172" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B172" s="14" t="s">
         <v>509</v>
       </c>
@@ -5016,9 +5016,9 @@
       <c r="F172" s="16"/>
       <c r="L172" s="1"/>
     </row>
-    <row r="173" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B173" s="3">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C173" s="3" t="s">
         <v>164</v>
@@ -5034,9 +5034,9 @@
       </c>
       <c r="L173" s="1"/>
     </row>
-    <row r="174" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B174" s="3">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C174" s="3" t="s">
         <v>165</v>
@@ -5052,9 +5052,9 @@
       </c>
       <c r="L174" s="1"/>
     </row>
-    <row r="175" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B175" s="3">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C175" s="3" t="s">
         <v>166</v>
@@ -5070,9 +5070,9 @@
       </c>
       <c r="L175" s="1"/>
     </row>
-    <row r="176" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B176" s="3">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C176" s="3" t="s">
         <v>167</v>
@@ -5088,9 +5088,9 @@
       </c>
       <c r="L176" s="1"/>
     </row>
-    <row r="177" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B177" s="3">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C177" s="3" t="s">
         <v>168</v>
@@ -5106,9 +5106,9 @@
       </c>
       <c r="L177" s="1"/>
     </row>
-    <row r="178" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B178" s="3">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C178" s="3" t="s">
         <v>169</v>
@@ -5124,9 +5124,9 @@
       </c>
       <c r="L178" s="1"/>
     </row>
-    <row r="179" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B179" s="3">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C179" s="3" t="s">
         <v>170</v>
@@ -5142,9 +5142,9 @@
       </c>
       <c r="L179" s="1"/>
     </row>
-    <row r="180" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B180" s="3">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C180" s="3" t="s">
         <v>171</v>
@@ -5160,9 +5160,9 @@
       </c>
       <c r="L180" s="1"/>
     </row>
-    <row r="181" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B181" s="3">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C181" s="3" t="s">
         <v>172</v>
@@ -5178,9 +5178,9 @@
       </c>
       <c r="L181" s="1"/>
     </row>
-    <row r="182" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B182" s="3">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C182" s="3" t="s">
         <v>173</v>
@@ -5196,9 +5196,9 @@
       </c>
       <c r="L182" s="1"/>
     </row>
-    <row r="183" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B183" s="3">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C183" s="3" t="s">
         <v>174</v>
@@ -5214,9 +5214,9 @@
       </c>
       <c r="L183" s="1"/>
     </row>
-    <row r="184" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B184" s="3">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C184" s="3" t="s">
         <v>175</v>
@@ -5232,9 +5232,9 @@
       </c>
       <c r="L184" s="1"/>
     </row>
-    <row r="185" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B185" s="3">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C185" s="3" t="s">
         <v>176</v>
@@ -5250,9 +5250,9 @@
       </c>
       <c r="L185" s="1"/>
     </row>
-    <row r="186" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B186" s="3">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C186" s="3" t="s">
         <v>177</v>
@@ -5268,9 +5268,9 @@
       </c>
       <c r="L186" s="1"/>
     </row>
-    <row r="187" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B187" s="3">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C187" s="3" t="s">
         <v>178</v>
@@ -5286,9 +5286,9 @@
       </c>
       <c r="L187" s="1"/>
     </row>
-    <row r="188" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B188" s="3">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C188" s="3" t="s">
         <v>179</v>
@@ -5304,9 +5304,9 @@
       </c>
       <c r="L188" s="1"/>
     </row>
-    <row r="189" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B189" s="3">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C189" s="3" t="s">
         <v>180</v>
@@ -5322,9 +5322,9 @@
       </c>
       <c r="L189" s="1"/>
     </row>
-    <row r="190" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B190" s="3">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C190" s="3" t="s">
         <v>181</v>
@@ -5340,9 +5340,9 @@
       </c>
       <c r="L190" s="1"/>
     </row>
-    <row r="191" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B191" s="3">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C191" s="3" t="s">
         <v>182</v>
@@ -5358,9 +5358,9 @@
       </c>
       <c r="L191" s="1"/>
     </row>
-    <row r="192" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B192" s="3">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C192" s="3" t="s">
         <v>183</v>
@@ -5376,9 +5376,9 @@
       </c>
       <c r="L192" s="1"/>
     </row>
-    <row r="193" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B193" s="3">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C193" s="3" t="s">
         <v>184</v>
@@ -5394,9 +5394,9 @@
       </c>
       <c r="L193" s="1"/>
     </row>
-    <row r="194" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B194" s="3">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C194" s="3" t="s">
         <v>185</v>
@@ -5412,9 +5412,9 @@
       </c>
       <c r="L194" s="1"/>
     </row>
-    <row r="195" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B195" s="3">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C195" s="3" t="s">
         <v>186</v>
@@ -5430,9 +5430,9 @@
       </c>
       <c r="L195" s="1"/>
     </row>
-    <row r="196" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B196" s="3">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C196" s="3" t="s">
         <v>187</v>
@@ -5448,9 +5448,9 @@
       </c>
       <c r="L196" s="1"/>
     </row>
-    <row r="197" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B197" s="3">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C197" s="3" t="s">
         <v>188</v>
@@ -5466,9 +5466,9 @@
       </c>
       <c r="L197" s="1"/>
     </row>
-    <row r="198" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B198" s="3">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C198" s="3" t="s">
         <v>189</v>
@@ -5484,9 +5484,9 @@
       </c>
       <c r="L198" s="1"/>
     </row>
-    <row r="199" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B199" s="3">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C199" s="3" t="s">
         <v>190</v>
@@ -5502,9 +5502,9 @@
       </c>
       <c r="L199" s="1"/>
     </row>
-    <row r="200" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B200" s="3">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C200" s="3" t="s">
         <v>191</v>
@@ -5520,9 +5520,9 @@
       </c>
       <c r="L200" s="1"/>
     </row>
-    <row r="201" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B201" s="3">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C201" s="3" t="s">
         <v>192</v>
@@ -5538,9 +5538,9 @@
       </c>
       <c r="L201" s="1"/>
     </row>
-    <row r="202" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B202" s="3">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C202" s="3" t="s">
         <v>193</v>
@@ -5556,9 +5556,9 @@
       </c>
       <c r="L202" s="1"/>
     </row>
-    <row r="203" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B203" s="3">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C203" s="3" t="s">
         <v>194</v>
@@ -5574,9 +5574,9 @@
       </c>
       <c r="L203" s="1"/>
     </row>
-    <row r="204" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B204" s="3">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C204" s="3" t="s">
         <v>195</v>
@@ -5592,9 +5592,9 @@
       </c>
       <c r="L204" s="1"/>
     </row>
-    <row r="205" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B205" s="3">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C205" s="3" t="s">
         <v>196</v>
@@ -5610,9 +5610,9 @@
       </c>
       <c r="L205" s="1"/>
     </row>
-    <row r="206" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B206" s="3">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C206" s="3" t="s">
         <v>197</v>
@@ -5628,9 +5628,9 @@
       </c>
       <c r="L206" s="1"/>
     </row>
-    <row r="207" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B207" s="3">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C207" s="3" t="s">
         <v>198</v>
@@ -5646,9 +5646,9 @@
       </c>
       <c r="L207" s="1"/>
     </row>
-    <row r="208" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B208" s="3">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C208" s="3" t="s">
         <v>199</v>
@@ -5664,9 +5664,9 @@
       </c>
       <c r="L208" s="1"/>
     </row>
-    <row r="209" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B209" s="3">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C209" s="3" t="s">
         <v>200</v>
@@ -5682,9 +5682,9 @@
       </c>
       <c r="L209" s="1"/>
     </row>
-    <row r="210" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B210" s="3">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C210" s="3" t="s">
         <v>201</v>
@@ -5700,9 +5700,9 @@
       </c>
       <c r="L210" s="1"/>
     </row>
-    <row r="211" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B211" s="3">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C211" s="3" t="s">
         <v>202</v>
@@ -5718,9 +5718,9 @@
       </c>
       <c r="L211" s="1"/>
     </row>
-    <row r="212" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B212" s="3">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C212" s="3" t="s">
         <v>203</v>
@@ -5736,9 +5736,9 @@
       </c>
       <c r="L212" s="1"/>
     </row>
-    <row r="213" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B213" s="3">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C213" s="3" t="s">
         <v>204</v>
@@ -5754,9 +5754,9 @@
       </c>
       <c r="L213" s="1"/>
     </row>
-    <row r="214" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B214" s="3">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C214" s="3" t="s">
         <v>205</v>
@@ -5772,9 +5772,9 @@
       </c>
       <c r="L214" s="1"/>
     </row>
-    <row r="215" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B215" s="3">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C215" s="3" t="s">
         <v>206</v>
@@ -5790,9 +5790,9 @@
       </c>
       <c r="L215" s="1"/>
     </row>
-    <row r="216" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B216" s="3">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C216" s="3" t="s">
         <v>207</v>
@@ -5808,9 +5808,9 @@
       </c>
       <c r="L216" s="1"/>
     </row>
-    <row r="217" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B217" s="3">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C217" s="3" t="s">
         <v>208</v>
@@ -5826,9 +5826,9 @@
       </c>
       <c r="L217" s="1"/>
     </row>
-    <row r="218" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B218" s="3">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C218" s="3" t="s">
         <v>209</v>
@@ -5844,9 +5844,9 @@
       </c>
       <c r="L218" s="1"/>
     </row>
-    <row r="219" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B219" s="3">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C219" s="3" t="s">
         <v>210</v>
@@ -5862,9 +5862,9 @@
       </c>
       <c r="L219" s="1"/>
     </row>
-    <row r="220" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B220" s="3">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C220" s="3" t="s">
         <v>211</v>
@@ -5880,9 +5880,9 @@
       </c>
       <c r="L220" s="1"/>
     </row>
-    <row r="221" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B221" s="3">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C221" s="3" t="s">
         <v>212</v>
@@ -5898,9 +5898,9 @@
       </c>
       <c r="L221" s="1"/>
     </row>
-    <row r="222" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B222" s="3">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C222" s="3" t="s">
         <v>213</v>
@@ -5916,9 +5916,9 @@
       </c>
       <c r="L222" s="1"/>
     </row>
-    <row r="223" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B223" s="3">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C223" s="3" t="s">
         <v>214</v>
@@ -5934,9 +5934,9 @@
       </c>
       <c r="L223" s="1"/>
     </row>
-    <row r="224" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B224" s="3">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C224" s="3" t="s">
         <v>215</v>
@@ -5952,9 +5952,9 @@
       </c>
       <c r="L224" s="1"/>
     </row>
-    <row r="225" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B225" s="3">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C225" s="3" t="s">
         <v>216</v>
@@ -5970,9 +5970,9 @@
       </c>
       <c r="L225" s="1"/>
     </row>
-    <row r="226" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B226" s="3">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C226" s="3" t="s">
         <v>217</v>
@@ -5988,9 +5988,9 @@
       </c>
       <c r="L226" s="1"/>
     </row>
-    <row r="227" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B227" s="3">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C227" s="3" t="s">
         <v>218</v>
@@ -6006,9 +6006,9 @@
       </c>
       <c r="L227" s="1"/>
     </row>
-    <row r="228" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B228" s="3">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C228" s="3" t="s">
         <v>219</v>
@@ -6024,9 +6024,9 @@
       </c>
       <c r="L228" s="1"/>
     </row>
-    <row r="229" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B229" s="3">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C229" s="3" t="s">
         <v>220</v>
@@ -6042,9 +6042,9 @@
       </c>
       <c r="L229" s="1"/>
     </row>
-    <row r="230" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B230" s="3">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C230" s="3" t="s">
         <v>221</v>
@@ -6060,9 +6060,9 @@
       </c>
       <c r="L230" s="1"/>
     </row>
-    <row r="231" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B231" s="3">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C231" s="3" t="s">
         <v>222</v>
@@ -6078,9 +6078,9 @@
       </c>
       <c r="L231" s="1"/>
     </row>
-    <row r="232" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B232" s="3">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C232" s="3" t="s">
         <v>223</v>
@@ -6096,9 +6096,9 @@
       </c>
       <c r="L232" s="1"/>
     </row>
-    <row r="233" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B233" s="3">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C233" s="3" t="s">
         <v>224</v>
@@ -6114,9 +6114,9 @@
       </c>
       <c r="L233" s="1"/>
     </row>
-    <row r="234" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B234" s="3">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C234" s="3" t="s">
         <v>225</v>
@@ -6132,9 +6132,9 @@
       </c>
       <c r="L234" s="1"/>
     </row>
-    <row r="235" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B235" s="3">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C235" s="3" t="s">
         <v>226</v>
@@ -6150,9 +6150,9 @@
       </c>
       <c r="L235" s="1"/>
     </row>
-    <row r="236" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B236" s="3">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C236" s="3" t="s">
         <v>227</v>
@@ -6168,9 +6168,9 @@
       </c>
       <c r="L236" s="1"/>
     </row>
-    <row r="237" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B237" s="3">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C237" s="3" t="s">
         <v>228</v>
@@ -6186,9 +6186,9 @@
       </c>
       <c r="L237" s="1"/>
     </row>
-    <row r="238" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B238" s="3">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C238" s="3" t="s">
         <v>229</v>
@@ -6204,9 +6204,9 @@
       </c>
       <c r="L238" s="1"/>
     </row>
-    <row r="239" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B239" s="3">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C239" s="3" t="s">
         <v>230</v>
@@ -6222,9 +6222,9 @@
       </c>
       <c r="L239" s="1"/>
     </row>
-    <row r="240" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B240" s="3">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C240" s="3" t="s">
         <v>231</v>
@@ -6240,9 +6240,9 @@
       </c>
       <c r="L240" s="1"/>
     </row>
-    <row r="241" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B241" s="3">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C241" s="3" t="s">
         <v>232</v>
@@ -6258,9 +6258,9 @@
       </c>
       <c r="L241" s="1"/>
     </row>
-    <row r="242" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B242" s="3">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C242" s="3" t="s">
         <v>233</v>
@@ -6276,9 +6276,9 @@
       </c>
       <c r="L242" s="1"/>
     </row>
-    <row r="243" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B243" s="3">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C243" s="3" t="s">
         <v>234</v>
@@ -6294,9 +6294,9 @@
       </c>
       <c r="L243" s="1"/>
     </row>
-    <row r="244" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B244" s="3">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C244" s="3" t="s">
         <v>235</v>
@@ -6312,9 +6312,9 @@
       </c>
       <c r="L244" s="1"/>
     </row>
-    <row r="245" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B245" s="3">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C245" s="3" t="s">
         <v>236</v>
@@ -6330,9 +6330,9 @@
       </c>
       <c r="L245" s="1"/>
     </row>
-    <row r="246" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B246" s="3">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C246" s="3" t="s">
         <v>237</v>
@@ -6348,9 +6348,9 @@
       </c>
       <c r="L246" s="1"/>
     </row>
-    <row r="247" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B247" s="3">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C247" s="3" t="s">
         <v>238</v>
@@ -6366,9 +6366,9 @@
       </c>
       <c r="L247" s="1"/>
     </row>
-    <row r="248" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B248" s="3">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C248" s="3" t="s">
         <v>239</v>
@@ -6384,9 +6384,9 @@
       </c>
       <c r="L248" s="1"/>
     </row>
-    <row r="249" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B249" s="3">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C249" s="3" t="s">
         <v>240</v>
@@ -6402,9 +6402,9 @@
       </c>
       <c r="L249" s="1"/>
     </row>
-    <row r="250" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B250" s="3">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C250" s="3" t="s">
         <v>241</v>
@@ -6420,9 +6420,9 @@
       </c>
       <c r="L250" s="1"/>
     </row>
-    <row r="251" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B251" s="3">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C251" s="3" t="s">
         <v>242</v>
@@ -6438,9 +6438,9 @@
       </c>
       <c r="L251" s="1"/>
     </row>
-    <row r="252" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B252" s="3">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C252" s="3" t="s">
         <v>243</v>
@@ -6456,9 +6456,9 @@
       </c>
       <c r="L252" s="1"/>
     </row>
-    <row r="253" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B253" s="3">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C253" s="3" t="s">
         <v>244</v>
@@ -6474,9 +6474,9 @@
       </c>
       <c r="L253" s="1"/>
     </row>
-    <row r="254" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B254" s="3">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C254" s="3" t="s">
         <v>245</v>
@@ -6492,9 +6492,9 @@
       </c>
       <c r="L254" s="1"/>
     </row>
-    <row r="255" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B255" s="3">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C255" s="3" t="s">
         <v>246</v>
@@ -6510,9 +6510,9 @@
       </c>
       <c r="L255" s="1"/>
     </row>
-    <row r="256" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B256" s="3">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C256" s="3" t="s">
         <v>247</v>
@@ -6528,9 +6528,9 @@
       </c>
       <c r="L256" s="1"/>
     </row>
-    <row r="257" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B257" s="3">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C257" s="3" t="s">
         <v>248</v>
@@ -6546,9 +6546,9 @@
       </c>
       <c r="L257" s="1"/>
     </row>
-    <row r="258" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B258" s="3">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C258" s="3" t="s">
         <v>249</v>
@@ -6564,9 +6564,9 @@
       </c>
       <c r="L258" s="1"/>
     </row>
-    <row r="259" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B259" s="3">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C259" s="3" t="s">
         <v>250</v>
@@ -6582,9 +6582,9 @@
       </c>
       <c r="L259" s="1"/>
     </row>
-    <row r="260" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B260" s="3">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C260" s="3" t="s">
         <v>251</v>
@@ -6600,9 +6600,9 @@
       </c>
       <c r="L260" s="1"/>
     </row>
-    <row r="261" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B261" s="3">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C261" s="3" t="s">
         <v>252</v>
@@ -6618,9 +6618,9 @@
       </c>
       <c r="L261" s="1"/>
     </row>
-    <row r="262" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B262" s="3">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C262" s="3" t="s">
         <v>253</v>
@@ -6636,9 +6636,9 @@
       </c>
       <c r="L262" s="1"/>
     </row>
-    <row r="263" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B263" s="3">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C263" s="3" t="s">
         <v>254</v>
@@ -6654,9 +6654,9 @@
       </c>
       <c r="L263" s="1"/>
     </row>
-    <row r="264" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B264" s="3">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C264" s="3" t="s">
         <v>255</v>
@@ -6672,9 +6672,9 @@
       </c>
       <c r="L264" s="1"/>
     </row>
-    <row r="265" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B265" s="3">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C265" s="3" t="s">
         <v>256</v>
@@ -6690,9 +6690,9 @@
       </c>
       <c r="L265" s="1"/>
     </row>
-    <row r="266" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B266" s="3">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C266" s="3" t="s">
         <v>257</v>
@@ -6708,9 +6708,9 @@
       </c>
       <c r="L266" s="1"/>
     </row>
-    <row r="267" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B267" s="3">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C267" s="3" t="s">
         <v>258</v>
@@ -6726,9 +6726,9 @@
       </c>
       <c r="L267" s="1"/>
     </row>
-    <row r="268" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B268" s="3">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C268" s="3" t="s">
         <v>259</v>
@@ -6744,9 +6744,9 @@
       </c>
       <c r="L268" s="1"/>
     </row>
-    <row r="269" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B269" s="3">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C269" s="3" t="s">
         <v>260</v>
@@ -6762,9 +6762,9 @@
       </c>
       <c r="L269" s="1"/>
     </row>
-    <row r="270" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B270" s="3">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C270" s="3" t="s">
         <v>261</v>
@@ -6780,9 +6780,9 @@
       </c>
       <c r="L270" s="1"/>
     </row>
-    <row r="271" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B271" s="3">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C271" s="3" t="s">
         <v>262</v>
@@ -6798,9 +6798,9 @@
       </c>
       <c r="L271" s="1"/>
     </row>
-    <row r="272" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B272" s="3">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C272" s="3" t="s">
         <v>263</v>
@@ -6816,9 +6816,9 @@
       </c>
       <c r="L272" s="1"/>
     </row>
-    <row r="273" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B273" s="3">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C273" s="3" t="s">
         <v>264</v>
@@ -6834,9 +6834,9 @@
       </c>
       <c r="L273" s="1"/>
     </row>
-    <row r="274" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B274" s="3">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C274" s="3" t="s">
         <v>265</v>
@@ -6852,9 +6852,9 @@
       </c>
       <c r="L274" s="1"/>
     </row>
-    <row r="275" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B275" s="3">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C275" s="3" t="s">
         <v>266</v>
@@ -6870,9 +6870,9 @@
       </c>
       <c r="L275" s="1"/>
     </row>
-    <row r="276" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B276" s="3">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C276" s="3" t="s">
         <v>267</v>
@@ -6888,9 +6888,9 @@
       </c>
       <c r="L276" s="1"/>
     </row>
-    <row r="277" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B277" s="3">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C277" s="3" t="s">
         <v>268</v>
@@ -6906,9 +6906,9 @@
       </c>
       <c r="L277" s="1"/>
     </row>
-    <row r="278" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B278" s="3">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C278" s="3" t="s">
         <v>269</v>
@@ -6924,9 +6924,9 @@
       </c>
       <c r="L278" s="1"/>
     </row>
-    <row r="279" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B279" s="3">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C279" s="3" t="s">
         <v>270</v>
@@ -6942,9 +6942,9 @@
       </c>
       <c r="L279" s="1"/>
     </row>
-    <row r="280" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B280" s="3">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C280" s="3" t="s">
         <v>271</v>
@@ -6960,9 +6960,9 @@
       </c>
       <c r="L280" s="1"/>
     </row>
-    <row r="281" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B281" s="3">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C281" s="3" t="s">
         <v>272</v>
@@ -6978,9 +6978,9 @@
       </c>
       <c r="L281" s="1"/>
     </row>
-    <row r="282" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B282" s="3">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C282" s="3" t="s">
         <v>273</v>
@@ -6996,9 +6996,9 @@
       </c>
       <c r="L282" s="1"/>
     </row>
-    <row r="283" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B283" s="3">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C283" s="3" t="s">
         <v>274</v>
@@ -7014,9 +7014,9 @@
       </c>
       <c r="L283" s="1"/>
     </row>
-    <row r="284" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B284" s="3">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C284" s="3" t="s">
         <v>275</v>
@@ -7032,9 +7032,9 @@
       </c>
       <c r="L284" s="1"/>
     </row>
-    <row r="285" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B285" s="3">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C285" s="3" t="s">
         <v>276</v>
@@ -7050,9 +7050,9 @@
       </c>
       <c r="L285" s="1"/>
     </row>
-    <row r="286" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B286" s="3">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C286" s="3" t="s">
         <v>277</v>
@@ -7068,9 +7068,9 @@
       </c>
       <c r="L286" s="1"/>
     </row>
-    <row r="287" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B287" s="3">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C287" s="3" t="s">
         <v>278</v>
@@ -7086,9 +7086,9 @@
       </c>
       <c r="L287" s="1"/>
     </row>
-    <row r="288" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B288" s="3">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C288" s="3" t="s">
         <v>279</v>
@@ -7104,9 +7104,9 @@
       </c>
       <c r="L288" s="1"/>
     </row>
-    <row r="289" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B289" s="3">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C289" s="3" t="s">
         <v>280</v>
@@ -7122,9 +7122,9 @@
       </c>
       <c r="L289" s="1"/>
     </row>
-    <row r="290" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B290" s="3">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C290" s="3" t="s">
         <v>281</v>
@@ -7140,9 +7140,9 @@
       </c>
       <c r="L290" s="1"/>
     </row>
-    <row r="291" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B291" s="3">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C291" s="3" t="s">
         <v>282</v>
@@ -7158,9 +7158,9 @@
       </c>
       <c r="L291" s="1"/>
     </row>
-    <row r="292" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B292" s="3">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C292" s="3" t="s">
         <v>283</v>
@@ -7176,9 +7176,9 @@
       </c>
       <c r="L292" s="1"/>
     </row>
-    <row r="293" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B293" s="3">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C293" s="3" t="s">
         <v>284</v>
@@ -7194,9 +7194,9 @@
       </c>
       <c r="L293" s="1"/>
     </row>
-    <row r="294" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B294" s="3">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C294" s="3" t="s">
         <v>285</v>
@@ -7212,9 +7212,9 @@
       </c>
       <c r="L294" s="1"/>
     </row>
-    <row r="295" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B295" s="3">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C295" s="3" t="s">
         <v>286</v>
@@ -7230,9 +7230,9 @@
       </c>
       <c r="L295" s="1"/>
     </row>
-    <row r="296" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B296" s="3">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C296" s="3" t="s">
         <v>287</v>
@@ -7248,9 +7248,9 @@
       </c>
       <c r="L296" s="1"/>
     </row>
-    <row r="297" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B297" s="3">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C297" s="3" t="s">
         <v>288</v>
@@ -7266,9 +7266,9 @@
       </c>
       <c r="L297" s="1"/>
     </row>
-    <row r="298" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B298" s="3">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C298" s="3" t="s">
         <v>289</v>
@@ -7284,9 +7284,9 @@
       </c>
       <c r="L298" s="1"/>
     </row>
-    <row r="299" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B299" s="3">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C299" s="3" t="s">
         <v>290</v>
@@ -7302,9 +7302,9 @@
       </c>
       <c r="L299" s="1"/>
     </row>
-    <row r="300" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B300" s="3">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C300" s="3" t="s">
         <v>291</v>
@@ -7320,9 +7320,9 @@
       </c>
       <c r="L300" s="1"/>
     </row>
-    <row r="301" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B301" s="3">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C301" s="3" t="s">
         <v>292</v>
@@ -7338,9 +7338,9 @@
       </c>
       <c r="L301" s="1"/>
     </row>
-    <row r="302" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B302" s="3">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C302" s="3" t="s">
         <v>293</v>
@@ -7356,9 +7356,9 @@
       </c>
       <c r="L302" s="1"/>
     </row>
-    <row r="303" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B303" s="3">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C303" s="3" t="s">
         <v>294</v>
@@ -7374,9 +7374,9 @@
       </c>
       <c r="L303" s="1"/>
     </row>
-    <row r="304" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B304" s="3">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C304" s="3" t="s">
         <v>295</v>
@@ -7392,9 +7392,9 @@
       </c>
       <c r="L304" s="1"/>
     </row>
-    <row r="305" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B305" s="3">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C305" s="3" t="s">
         <v>296</v>
@@ -7410,9 +7410,9 @@
       </c>
       <c r="L305" s="1"/>
     </row>
-    <row r="306" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B306" s="3">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C306" s="3" t="s">
         <v>297</v>
@@ -7428,9 +7428,9 @@
       </c>
       <c r="L306" s="1"/>
     </row>
-    <row r="307" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B307" s="3">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C307" s="3" t="s">
         <v>298</v>
@@ -7446,9 +7446,9 @@
       </c>
       <c r="L307" s="1"/>
     </row>
-    <row r="308" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B308" s="3">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C308" s="3" t="s">
         <v>299</v>
@@ -7464,9 +7464,9 @@
       </c>
       <c r="L308" s="1"/>
     </row>
-    <row r="309" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B309" s="3">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C309" s="3" t="s">
         <v>300</v>
@@ -7482,9 +7482,9 @@
       </c>
       <c r="L309" s="1"/>
     </row>
-    <row r="310" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B310" s="3">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C310" s="3" t="s">
         <v>301</v>
@@ -7500,9 +7500,9 @@
       </c>
       <c r="L310" s="1"/>
     </row>
-    <row r="311" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B311" s="3">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C311" s="3" t="s">
         <v>302</v>
@@ -7518,9 +7518,9 @@
       </c>
       <c r="L311" s="1"/>
     </row>
-    <row r="312" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B312" s="3">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C312" s="3" t="s">
         <v>303</v>
@@ -7536,9 +7536,9 @@
       </c>
       <c r="L312" s="1"/>
     </row>
-    <row r="313" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B313" s="3">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C313" s="3" t="s">
         <v>304</v>
@@ -7554,9 +7554,9 @@
       </c>
       <c r="L313" s="1"/>
     </row>
-    <row r="314" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B314" s="3">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C314" s="3" t="s">
         <v>305</v>
@@ -7572,9 +7572,9 @@
       </c>
       <c r="L314" s="1"/>
     </row>
-    <row r="315" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B315" s="3">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C315" s="3" t="s">
         <v>306</v>
@@ -7590,9 +7590,9 @@
       </c>
       <c r="L315" s="1"/>
     </row>
-    <row r="316" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B316" s="3">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C316" s="3" t="s">
         <v>307</v>
@@ -7608,9 +7608,9 @@
       </c>
       <c r="L316" s="1"/>
     </row>
-    <row r="317" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B317" s="3">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C317" s="3" t="s">
         <v>308</v>
@@ -7626,9 +7626,9 @@
       </c>
       <c r="L317" s="1"/>
     </row>
-    <row r="318" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B318" s="3">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C318" s="3" t="s">
         <v>309</v>
@@ -7644,9 +7644,9 @@
       </c>
       <c r="L318" s="1"/>
     </row>
-    <row r="319" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B319" s="3">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C319" s="3" t="s">
         <v>310</v>
@@ -7662,9 +7662,9 @@
       </c>
       <c r="L319" s="1"/>
     </row>
-    <row r="320" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B320" s="3">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C320" s="3" t="s">
         <v>311</v>
@@ -7680,9 +7680,9 @@
       </c>
       <c r="L320" s="1"/>
     </row>
-    <row r="321" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B321" s="3">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C321" s="3" t="s">
         <v>312</v>
@@ -7698,9 +7698,9 @@
       </c>
       <c r="L321" s="1"/>
     </row>
-    <row r="322" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B322" s="3">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C322" s="3" t="s">
         <v>313</v>
@@ -7716,9 +7716,9 @@
       </c>
       <c r="L322" s="1"/>
     </row>
-    <row r="323" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B323" s="3">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C323" s="3" t="s">
         <v>314</v>
@@ -7734,9 +7734,9 @@
       </c>
       <c r="L323" s="1"/>
     </row>
-    <row r="324" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B324" s="3">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C324" s="3" t="s">
         <v>315</v>
@@ -7752,9 +7752,9 @@
       </c>
       <c r="L324" s="1"/>
     </row>
-    <row r="325" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B325" s="3">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C325" s="3" t="s">
         <v>316</v>
@@ -7770,9 +7770,9 @@
       </c>
       <c r="L325" s="1"/>
     </row>
-    <row r="326" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B326" s="3">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C326" s="3" t="s">
         <v>317</v>
@@ -7788,9 +7788,9 @@
       </c>
       <c r="L326" s="1"/>
     </row>
-    <row r="327" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B327" s="3">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C327" s="3" t="s">
         <v>318</v>
@@ -7806,9 +7806,9 @@
       </c>
       <c r="L327" s="1"/>
     </row>
-    <row r="328" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B328" s="3">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C328" s="3" t="s">
         <v>319</v>
@@ -7824,9 +7824,9 @@
       </c>
       <c r="L328" s="1"/>
     </row>
-    <row r="329" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B329" s="3">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C329" s="3" t="s">
         <v>320</v>
@@ -7842,9 +7842,9 @@
       </c>
       <c r="L329" s="1"/>
     </row>
-    <row r="330" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B330" s="3">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C330" s="3" t="s">
         <v>321</v>
@@ -7860,9 +7860,9 @@
       </c>
       <c r="L330" s="1"/>
     </row>
-    <row r="331" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B331" s="3">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C331" s="3" t="s">
         <v>322</v>
@@ -7878,9 +7878,9 @@
       </c>
       <c r="L331" s="1"/>
     </row>
-    <row r="332" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B332" s="3">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C332" s="3" t="s">
         <v>323</v>
@@ -7896,9 +7896,9 @@
       </c>
       <c r="L332" s="1"/>
     </row>
-    <row r="333" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B333" s="3">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C333" s="3" t="s">
         <v>324</v>
@@ -7914,9 +7914,9 @@
       </c>
       <c r="L333" s="1"/>
     </row>
-    <row r="334" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B334" s="3">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C334" s="3" t="s">
         <v>325</v>
@@ -7932,9 +7932,9 @@
       </c>
       <c r="L334" s="1"/>
     </row>
-    <row r="335" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B335" s="3">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C335" s="3" t="s">
         <v>326</v>
@@ -7950,9 +7950,9 @@
       </c>
       <c r="L335" s="1"/>
     </row>
-    <row r="336" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B336" s="3">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C336" s="3" t="s">
         <v>327</v>
@@ -7968,9 +7968,9 @@
       </c>
       <c r="L336" s="1"/>
     </row>
-    <row r="337" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B337" s="3">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C337" s="3" t="s">
         <v>328</v>
@@ -7986,9 +7986,9 @@
       </c>
       <c r="L337" s="1"/>
     </row>
-    <row r="338" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B338" s="3">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C338" s="3" t="s">
         <v>329</v>
@@ -8004,9 +8004,9 @@
       </c>
       <c r="L338" s="1"/>
     </row>
-    <row r="339" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B339" s="3">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C339" s="3" t="s">
         <v>330</v>
@@ -8022,9 +8022,9 @@
       </c>
       <c r="L339" s="1"/>
     </row>
-    <row r="340" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B340" s="3">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C340" s="3" t="s">
         <v>331</v>
@@ -8040,9 +8040,9 @@
       </c>
       <c r="L340" s="1"/>
     </row>
-    <row r="341" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B341" s="3">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C341" s="3" t="s">
         <v>332</v>
@@ -8058,9 +8058,9 @@
       </c>
       <c r="L341" s="1"/>
     </row>
-    <row r="342" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B342" s="3">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C342" s="3" t="s">
         <v>333</v>
@@ -8076,9 +8076,9 @@
       </c>
       <c r="L342" s="1"/>
     </row>
-    <row r="343" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B343" s="3">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C343" s="3" t="s">
         <v>334</v>
@@ -8094,9 +8094,9 @@
       </c>
       <c r="L343" s="1"/>
     </row>
-    <row r="344" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B344" s="3">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C344" s="3" t="s">
         <v>335</v>
@@ -8112,9 +8112,9 @@
       </c>
       <c r="L344" s="1"/>
     </row>
-    <row r="345" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B345" s="3">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C345" s="3" t="s">
         <v>336</v>
@@ -8130,9 +8130,9 @@
       </c>
       <c r="L345" s="1"/>
     </row>
-    <row r="346" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B346" s="3">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C346" s="3" t="s">
         <v>337</v>
@@ -8148,9 +8148,9 @@
       </c>
       <c r="L346" s="1"/>
     </row>
-    <row r="347" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B347" s="3">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C347" s="3" t="s">
         <v>338</v>
@@ -8166,9 +8166,9 @@
       </c>
       <c r="L347" s="1"/>
     </row>
-    <row r="348" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B348" s="3">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C348" s="3" t="s">
         <v>339</v>
@@ -8184,9 +8184,9 @@
       </c>
       <c r="L348" s="1"/>
     </row>
-    <row r="349" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B349" s="3">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C349" s="3" t="s">
         <v>340</v>
@@ -8202,9 +8202,9 @@
       </c>
       <c r="L349" s="1"/>
     </row>
-    <row r="350" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B350" s="3">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C350" s="3" t="s">
         <v>341</v>
@@ -8220,9 +8220,9 @@
       </c>
       <c r="L350" s="1"/>
     </row>
-    <row r="351" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B351" s="3">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C351" s="3" t="s">
         <v>342</v>
@@ -8238,9 +8238,9 @@
       </c>
       <c r="L351" s="1"/>
     </row>
-    <row r="352" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B352" s="3">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C352" s="3" t="s">
         <v>343</v>
@@ -8256,9 +8256,9 @@
       </c>
       <c r="L352" s="1"/>
     </row>
-    <row r="353" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B353" s="3">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C353" s="3" t="s">
         <v>344</v>
@@ -8274,9 +8274,9 @@
       </c>
       <c r="L353" s="1"/>
     </row>
-    <row r="354" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B354" s="3">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C354" s="3" t="s">
         <v>345</v>
@@ -8292,9 +8292,9 @@
       </c>
       <c r="L354" s="1"/>
     </row>
-    <row r="355" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B355" s="3">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C355" s="3" t="s">
         <v>346</v>
@@ -8310,9 +8310,9 @@
       </c>
       <c r="L355" s="1"/>
     </row>
-    <row r="356" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B356" s="3">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C356" s="3" t="s">
         <v>347</v>
@@ -8328,9 +8328,9 @@
       </c>
       <c r="L356" s="1"/>
     </row>
-    <row r="357" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B357" s="3">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C357" s="3" t="s">
         <v>348</v>
@@ -8346,9 +8346,9 @@
       </c>
       <c r="L357" s="1"/>
     </row>
-    <row r="358" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B358" s="3">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C358" s="3" t="s">
         <v>349</v>
@@ -8364,9 +8364,9 @@
       </c>
       <c r="L358" s="1"/>
     </row>
-    <row r="359" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B359" s="3">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C359" s="3" t="s">
         <v>350</v>
@@ -8382,9 +8382,9 @@
       </c>
       <c r="L359" s="1"/>
     </row>
-    <row r="360" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B360" s="3">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C360" s="3" t="s">
         <v>351</v>
@@ -8400,9 +8400,9 @@
       </c>
       <c r="L360" s="1"/>
     </row>
-    <row r="361" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B361" s="3">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C361" s="3" t="s">
         <v>352</v>
@@ -8418,9 +8418,9 @@
       </c>
       <c r="L361" s="1"/>
     </row>
-    <row r="362" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B362" s="3">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C362" s="3" t="s">
         <v>353</v>
@@ -8436,9 +8436,9 @@
       </c>
       <c r="L362" s="1"/>
     </row>
-    <row r="363" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B363" s="3">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C363" s="3" t="s">
         <v>354</v>
@@ -8454,9 +8454,9 @@
       </c>
       <c r="L363" s="1"/>
     </row>
-    <row r="364" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B364" s="3">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C364" s="3" t="s">
         <v>355</v>
@@ -8472,9 +8472,9 @@
       </c>
       <c r="L364" s="1"/>
     </row>
-    <row r="365" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B365" s="3">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C365" s="3" t="s">
         <v>356</v>
@@ -8490,9 +8490,9 @@
       </c>
       <c r="L365" s="1"/>
     </row>
-    <row r="366" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B366" s="3">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C366" s="3" t="s">
         <v>357</v>
@@ -8508,9 +8508,9 @@
       </c>
       <c r="L366" s="1"/>
     </row>
-    <row r="367" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B367" s="3">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C367" s="3" t="s">
         <v>358</v>
@@ -8526,9 +8526,9 @@
       </c>
       <c r="L367" s="1"/>
     </row>
-    <row r="368" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B368" s="3">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C368" s="3" t="s">
         <v>359</v>
@@ -8544,9 +8544,9 @@
       </c>
       <c r="L368" s="1"/>
     </row>
-    <row r="369" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B369" s="3">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C369" s="3" t="s">
         <v>360</v>
@@ -8562,9 +8562,9 @@
       </c>
       <c r="L369" s="1"/>
     </row>
-    <row r="370" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B370" s="3">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C370" s="3" t="s">
         <v>361</v>
@@ -8580,9 +8580,9 @@
       </c>
       <c r="L370" s="1"/>
     </row>
-    <row r="371" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B371" s="3">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C371" s="3" t="s">
         <v>362</v>
@@ -8598,9 +8598,9 @@
       </c>
       <c r="L371" s="1"/>
     </row>
-    <row r="372" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B372" s="3">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C372" s="3" t="s">
         <v>363</v>
@@ -8616,9 +8616,9 @@
       </c>
       <c r="L372" s="1"/>
     </row>
-    <row r="373" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B373" s="3">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C373" s="3" t="s">
         <v>364</v>
@@ -8634,9 +8634,9 @@
       </c>
       <c r="L373" s="1"/>
     </row>
-    <row r="374" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B374" s="3">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C374" s="3" t="s">
         <v>365</v>
@@ -8652,9 +8652,9 @@
       </c>
       <c r="L374" s="1"/>
     </row>
-    <row r="375" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B375" s="3">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C375" s="3" t="s">
         <v>366</v>
@@ -8670,9 +8670,9 @@
       </c>
       <c r="L375" s="1"/>
     </row>
-    <row r="376" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B376" s="3">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C376" s="3" t="s">
         <v>367</v>
@@ -8688,9 +8688,9 @@
       </c>
       <c r="L376" s="1"/>
     </row>
-    <row r="377" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B377" s="3">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C377" s="3" t="s">
         <v>368</v>
@@ -8706,9 +8706,9 @@
       </c>
       <c r="L377" s="1"/>
     </row>
-    <row r="378" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B378" s="3">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C378" s="3" t="s">
         <v>369</v>
@@ -8724,9 +8724,9 @@
       </c>
       <c r="L378" s="1"/>
     </row>
-    <row r="379" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B379" s="3">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C379" s="3" t="s">
         <v>370</v>
@@ -8742,9 +8742,9 @@
       </c>
       <c r="L379" s="1"/>
     </row>
-    <row r="380" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B380" s="3">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C380" s="3" t="s">
         <v>371</v>
@@ -8760,9 +8760,9 @@
       </c>
       <c r="L380" s="1"/>
     </row>
-    <row r="381" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B381" s="3">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C381" s="3" t="s">
         <v>372</v>
@@ -8778,9 +8778,9 @@
       </c>
       <c r="L381" s="1"/>
     </row>
-    <row r="382" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B382" s="3">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C382" s="3" t="s">
         <v>373</v>
@@ -8796,9 +8796,9 @@
       </c>
       <c r="L382" s="1"/>
     </row>
-    <row r="383" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B383" s="3">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C383" s="3" t="s">
         <v>374</v>
@@ -8814,9 +8814,9 @@
       </c>
       <c r="L383" s="1"/>
     </row>
-    <row r="384" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B384" s="3">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C384" s="3" t="s">
         <v>375</v>
@@ -8832,9 +8832,9 @@
       </c>
       <c r="L384" s="1"/>
     </row>
-    <row r="385" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B385" s="3">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C385" s="3" t="s">
         <v>376</v>
@@ -8850,9 +8850,9 @@
       </c>
       <c r="L385" s="1"/>
     </row>
-    <row r="386" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B386" s="3">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C386" s="3" t="s">
         <v>377</v>
@@ -8868,9 +8868,9 @@
       </c>
       <c r="L386" s="1"/>
     </row>
-    <row r="387" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B387" s="3">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C387" s="3" t="s">
         <v>378</v>
@@ -8886,9 +8886,9 @@
       </c>
       <c r="L387" s="1"/>
     </row>
-    <row r="388" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B388" s="3">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C388" s="3" t="s">
         <v>379</v>
@@ -8904,9 +8904,9 @@
       </c>
       <c r="L388" s="1"/>
     </row>
-    <row r="389" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B389" s="3">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C389" s="3" t="s">
         <v>380</v>
@@ -8922,9 +8922,9 @@
       </c>
       <c r="L389" s="1"/>
     </row>
-    <row r="390" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B390" s="3">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C390" s="3" t="s">
         <v>381</v>
@@ -8940,9 +8940,9 @@
       </c>
       <c r="L390" s="1"/>
     </row>
-    <row r="391" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B391" s="3">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C391" s="3" t="s">
         <v>382</v>
@@ -8958,9 +8958,9 @@
       </c>
       <c r="L391" s="1"/>
     </row>
-    <row r="392" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B392" s="3">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C392" s="3" t="s">
         <v>383</v>
@@ -8976,9 +8976,9 @@
       </c>
       <c r="L392" s="1"/>
     </row>
-    <row r="393" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B393" s="3">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C393" s="3" t="s">
         <v>384</v>
@@ -8994,9 +8994,9 @@
       </c>
       <c r="L393" s="1"/>
     </row>
-    <row r="394" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B394" s="3">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C394" s="3" t="s">
         <v>385</v>
@@ -9012,9 +9012,9 @@
       </c>
       <c r="L394" s="1"/>
     </row>
-    <row r="395" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B395" s="3">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C395" s="3" t="s">
         <v>386</v>
@@ -9030,9 +9030,9 @@
       </c>
       <c r="L395" s="1"/>
     </row>
-    <row r="396" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B396" s="3">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C396" s="3" t="s">
         <v>387</v>
@@ -9048,9 +9048,9 @@
       </c>
       <c r="L396" s="1"/>
     </row>
-    <row r="397" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B397" s="3">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C397" s="3" t="s">
         <v>388</v>
@@ -9066,9 +9066,9 @@
       </c>
       <c r="L397" s="1"/>
     </row>
-    <row r="398" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B398" s="3">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C398" s="3" t="s">
         <v>389</v>
@@ -9084,9 +9084,9 @@
       </c>
       <c r="L398" s="1"/>
     </row>
-    <row r="399" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B399" s="3">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C399" s="3" t="s">
         <v>390</v>
@@ -9102,9 +9102,9 @@
       </c>
       <c r="L399" s="1"/>
     </row>
-    <row r="400" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B400" s="3">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C400" s="3" t="s">
         <v>391</v>
@@ -9120,9 +9120,9 @@
       </c>
       <c r="L400" s="1"/>
     </row>
-    <row r="401" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B401" s="3">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C401" s="3" t="s">
         <v>392</v>
@@ -9138,9 +9138,9 @@
       </c>
       <c r="L401" s="1"/>
     </row>
-    <row r="402" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B402" s="3">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C402" s="3" t="s">
         <v>393</v>
@@ -9156,9 +9156,9 @@
       </c>
       <c r="L402" s="1"/>
     </row>
-    <row r="403" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B403" s="3">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C403" s="3" t="s">
         <v>394</v>
@@ -9174,9 +9174,9 @@
       </c>
       <c r="L403" s="1"/>
     </row>
-    <row r="404" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B404" s="3">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C404" s="3" t="s">
         <v>395</v>
@@ -9192,9 +9192,9 @@
       </c>
       <c r="L404" s="1"/>
     </row>
-    <row r="405" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="405" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B405" s="3">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C405" s="3" t="s">
         <v>396</v>
@@ -9210,9 +9210,9 @@
       </c>
       <c r="L405" s="1"/>
     </row>
-    <row r="406" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="406" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B406" s="3">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C406" s="3" t="s">
         <v>397</v>
@@ -9228,9 +9228,9 @@
       </c>
       <c r="L406" s="1"/>
     </row>
-    <row r="407" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="407" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B407" s="3">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C407" s="3" t="s">
         <v>398</v>
@@ -9246,9 +9246,9 @@
       </c>
       <c r="L407" s="1"/>
     </row>
-    <row r="408" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="408" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B408" s="3">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C408" s="3" t="s">
         <v>399</v>
@@ -9264,9 +9264,9 @@
       </c>
       <c r="L408" s="1"/>
     </row>
-    <row r="409" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="409" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B409" s="3">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C409" s="3" t="s">
         <v>400</v>
@@ -9282,9 +9282,9 @@
       </c>
       <c r="L409" s="1"/>
     </row>
-    <row r="410" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="410" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B410" s="3">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C410" s="3" t="s">
         <v>401</v>
@@ -9300,9 +9300,9 @@
       </c>
       <c r="L410" s="1"/>
     </row>
-    <row r="411" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="411" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B411" s="3">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C411" s="3" t="s">
         <v>402</v>
@@ -9318,9 +9318,9 @@
       </c>
       <c r="L411" s="1"/>
     </row>
-    <row r="412" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="412" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B412" s="3">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C412" s="3" t="s">
         <v>403</v>
@@ -9336,9 +9336,9 @@
       </c>
       <c r="L412" s="1"/>
     </row>
-    <row r="413" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="413" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B413" s="3">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C413" s="3" t="s">
         <v>404</v>
@@ -9354,9 +9354,9 @@
       </c>
       <c r="L413" s="1"/>
     </row>
-    <row r="414" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="414" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B414" s="3">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C414" s="3" t="s">
         <v>405</v>
@@ -9372,9 +9372,9 @@
       </c>
       <c r="L414" s="1"/>
     </row>
-    <row r="415" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="415" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B415" s="3">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C415" s="3" t="s">
         <v>406</v>
@@ -9390,9 +9390,9 @@
       </c>
       <c r="L415" s="1"/>
     </row>
-    <row r="416" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="416" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B416" s="3">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C416" s="3" t="s">
         <v>407</v>
@@ -9408,9 +9408,9 @@
       </c>
       <c r="L416" s="1"/>
     </row>
-    <row r="417" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="417" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B417" s="3">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C417" s="3" t="s">
         <v>408</v>
@@ -9426,9 +9426,9 @@
       </c>
       <c r="L417" s="1"/>
     </row>
-    <row r="418" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="418" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B418" s="3">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C418" s="3" t="s">
         <v>409</v>
@@ -9444,9 +9444,9 @@
       </c>
       <c r="L418" s="1"/>
     </row>
-    <row r="419" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="419" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B419" s="3">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C419" s="3" t="s">
         <v>410</v>
@@ -9462,9 +9462,9 @@
       </c>
       <c r="L419" s="1"/>
     </row>
-    <row r="420" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="420" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B420" s="3">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C420" s="3" t="s">
         <v>411</v>
@@ -9480,9 +9480,9 @@
       </c>
       <c r="L420" s="1"/>
     </row>
-    <row r="421" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="421" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B421" s="3">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C421" s="3" t="s">
         <v>412</v>
@@ -9498,9 +9498,9 @@
       </c>
       <c r="L421" s="1"/>
     </row>
-    <row r="422" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="422" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B422" s="3">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C422" s="3" t="s">
         <v>413</v>
@@ -9516,9 +9516,9 @@
       </c>
       <c r="L422" s="1"/>
     </row>
-    <row r="423" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="423" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B423" s="3">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C423" s="3" t="s">
         <v>414</v>
@@ -9534,9 +9534,9 @@
       </c>
       <c r="L423" s="1"/>
     </row>
-    <row r="424" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="424" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B424" s="3">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C424" s="3" t="s">
         <v>415</v>
@@ -9552,9 +9552,9 @@
       </c>
       <c r="L424" s="1"/>
     </row>
-    <row r="425" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="425" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B425" s="3">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C425" s="3" t="s">
         <v>416</v>
@@ -9570,9 +9570,9 @@
       </c>
       <c r="L425" s="1"/>
     </row>
-    <row r="426" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="426" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B426" s="3">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C426" s="3" t="s">
         <v>417</v>
@@ -9588,9 +9588,9 @@
       </c>
       <c r="L426" s="1"/>
     </row>
-    <row r="427" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="427" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B427" s="3">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C427" s="3" t="s">
         <v>418</v>
@@ -9606,9 +9606,9 @@
       </c>
       <c r="L427" s="1"/>
     </row>
-    <row r="428" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="428" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B428" s="3">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C428" s="3" t="s">
         <v>419</v>
@@ -9624,9 +9624,9 @@
       </c>
       <c r="L428" s="1"/>
     </row>
-    <row r="429" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="429" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B429" s="3">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C429" s="3" t="s">
         <v>420</v>
@@ -9642,9 +9642,9 @@
       </c>
       <c r="L429" s="1"/>
     </row>
-    <row r="430" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="430" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B430" s="3">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C430" s="3" t="s">
         <v>421</v>
@@ -9660,9 +9660,9 @@
       </c>
       <c r="L430" s="1"/>
     </row>
-    <row r="431" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="431" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B431" s="3">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C431" s="3" t="s">
         <v>422</v>
@@ -9678,9 +9678,9 @@
       </c>
       <c r="L431" s="1"/>
     </row>
-    <row r="432" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="432" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B432" s="3">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C432" s="3" t="s">
         <v>423</v>
@@ -9696,9 +9696,9 @@
       </c>
       <c r="L432" s="1"/>
     </row>
-    <row r="433" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="433" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B433" s="3">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C433" s="3" t="s">
         <v>424</v>
@@ -9714,9 +9714,9 @@
       </c>
       <c r="L433" s="1"/>
     </row>
-    <row r="434" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="434" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B434" s="3">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C434" s="3" t="s">
         <v>425</v>
@@ -9732,9 +9732,9 @@
       </c>
       <c r="L434" s="1"/>
     </row>
-    <row r="435" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="435" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B435" s="3">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C435" s="3" t="s">
         <v>426</v>
@@ -9750,9 +9750,9 @@
       </c>
       <c r="L435" s="1"/>
     </row>
-    <row r="436" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="436" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B436" s="3">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C436" s="3" t="s">
         <v>427</v>
@@ -9768,9 +9768,9 @@
       </c>
       <c r="L436" s="1"/>
     </row>
-    <row r="437" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="437" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B437" s="3">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C437" s="3" t="s">
         <v>428</v>
@@ -9786,9 +9786,9 @@
       </c>
       <c r="L437" s="1"/>
     </row>
-    <row r="438" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="438" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B438" s="3">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C438" s="3" t="s">
         <v>429</v>
@@ -9804,9 +9804,9 @@
       </c>
       <c r="L438" s="1"/>
     </row>
-    <row r="439" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="439" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B439" s="3">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C439" s="3" t="s">
         <v>430</v>
@@ -9822,9 +9822,9 @@
       </c>
       <c r="L439" s="1"/>
     </row>
-    <row r="440" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="440" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B440" s="3">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C440" s="3" t="s">
         <v>431</v>
@@ -9840,9 +9840,9 @@
       </c>
       <c r="L440" s="1"/>
     </row>
-    <row r="441" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="441" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B441" s="3">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C441" s="3" t="s">
         <v>432</v>
@@ -9858,9 +9858,9 @@
       </c>
       <c r="L441" s="1"/>
     </row>
-    <row r="442" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="442" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B442" s="3">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C442" s="3" t="s">
         <v>433</v>
@@ -9876,9 +9876,9 @@
       </c>
       <c r="L442" s="1"/>
     </row>
-    <row r="443" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="443" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B443" s="3">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C443" s="3" t="s">
         <v>434</v>
@@ -9894,9 +9894,9 @@
       </c>
       <c r="L443" s="1"/>
     </row>
-    <row r="444" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="444" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B444" s="3">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C444" s="3" t="s">
         <v>435</v>
@@ -9912,9 +9912,9 @@
       </c>
       <c r="L444" s="1"/>
     </row>
-    <row r="445" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="445" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B445" s="3">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C445" s="3" t="s">
         <v>436</v>
@@ -9930,9 +9930,9 @@
       </c>
       <c r="L445" s="1"/>
     </row>
-    <row r="446" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="446" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B446" s="3">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C446" s="3" t="s">
         <v>437</v>
@@ -9948,9 +9948,9 @@
       </c>
       <c r="L446" s="1"/>
     </row>
-    <row r="447" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="447" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B447" s="3">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C447" s="3" t="s">
         <v>438</v>
@@ -9966,9 +9966,9 @@
       </c>
       <c r="L447" s="1"/>
     </row>
-    <row r="448" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="448" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B448" s="3">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C448" s="3" t="s">
         <v>439</v>
@@ -9984,9 +9984,9 @@
       </c>
       <c r="L448" s="1"/>
     </row>
-    <row r="449" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="449" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B449" s="3">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C449" s="3" t="s">
         <v>440</v>
@@ -10002,9 +10002,9 @@
       </c>
       <c r="L449" s="1"/>
     </row>
-    <row r="450" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="450" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B450" s="3">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C450" s="3" t="s">
         <v>441</v>
@@ -10020,9 +10020,9 @@
       </c>
       <c r="L450" s="1"/>
     </row>
-    <row r="451" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="451" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B451" s="3">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C451" s="3" t="s">
         <v>442</v>
@@ -10038,9 +10038,9 @@
       </c>
       <c r="L451" s="1"/>
     </row>
-    <row r="452" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="452" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B452" s="3">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C452" s="3" t="s">
         <v>443</v>
@@ -10056,9 +10056,9 @@
       </c>
       <c r="L452" s="1"/>
     </row>
-    <row r="453" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="453" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B453" s="3">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C453" s="3" t="s">
         <v>444</v>
@@ -10074,9 +10074,9 @@
       </c>
       <c r="L453" s="1"/>
     </row>
-    <row r="454" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="454" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B454" s="3">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C454" s="3" t="s">
         <v>445</v>
@@ -10092,9 +10092,9 @@
       </c>
       <c r="L454" s="1"/>
     </row>
-    <row r="455" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="455" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B455" s="3">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C455" s="3" t="s">
         <v>446</v>
@@ -10110,9 +10110,9 @@
       </c>
       <c r="L455" s="1"/>
     </row>
-    <row r="456" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="456" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B456" s="3">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C456" s="3" t="s">
         <v>447</v>
@@ -10128,9 +10128,9 @@
       </c>
       <c r="L456" s="1"/>
     </row>
-    <row r="457" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="457" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B457" s="3">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C457" s="3" t="s">
         <v>448</v>
@@ -10146,9 +10146,9 @@
       </c>
       <c r="L457" s="1"/>
     </row>
-    <row r="458" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="458" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B458" s="3">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C458" s="3" t="s">
         <v>449</v>
@@ -10164,9 +10164,9 @@
       </c>
       <c r="L458" s="1"/>
     </row>
-    <row r="459" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="459" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B459" s="3">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C459" s="3" t="s">
         <v>450</v>
@@ -10182,9 +10182,9 @@
       </c>
       <c r="L459" s="1"/>
     </row>
-    <row r="460" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="460" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B460" s="3">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C460" s="3" t="s">
         <v>451</v>
@@ -10200,9 +10200,9 @@
       </c>
       <c r="L460" s="1"/>
     </row>
-    <row r="461" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="461" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B461" s="3">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C461" s="3" t="s">
         <v>452</v>
@@ -10218,9 +10218,9 @@
       </c>
       <c r="L461" s="1"/>
     </row>
-    <row r="462" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="462" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B462" s="3">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C462" s="3" t="s">
         <v>453</v>
@@ -10236,9 +10236,9 @@
       </c>
       <c r="L462" s="1"/>
     </row>
-    <row r="463" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="463" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B463" s="3">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C463" s="3" t="s">
         <v>454</v>
@@ -10254,9 +10254,9 @@
       </c>
       <c r="L463" s="1"/>
     </row>
-    <row r="464" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="464" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B464" s="3">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C464" s="3" t="s">
         <v>455</v>
@@ -10272,9 +10272,9 @@
       </c>
       <c r="L464" s="1"/>
     </row>
-    <row r="465" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="465" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B465" s="3">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C465" s="3" t="s">
         <v>456</v>
@@ -10290,9 +10290,9 @@
       </c>
       <c r="L465" s="1"/>
     </row>
-    <row r="466" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="466" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B466" s="3">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C466" s="3" t="s">
         <v>457</v>
@@ -10308,9 +10308,9 @@
       </c>
       <c r="L466" s="1"/>
     </row>
-    <row r="467" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="467" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B467" s="3">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C467" s="3" t="s">
         <v>458</v>
@@ -10326,9 +10326,9 @@
       </c>
       <c r="L467" s="1"/>
     </row>
-    <row r="468" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="468" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B468" s="3">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C468" s="3" t="s">
         <v>459</v>
@@ -10344,9 +10344,9 @@
       </c>
       <c r="L468" s="1"/>
     </row>
-    <row r="469" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="469" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B469" s="3">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C469" s="3" t="s">
         <v>460</v>
@@ -10362,9 +10362,9 @@
       </c>
       <c r="L469" s="1"/>
     </row>
-    <row r="470" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="470" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B470" s="3">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C470" s="3" t="s">
         <v>461</v>
@@ -10380,9 +10380,9 @@
       </c>
       <c r="L470" s="1"/>
     </row>
-    <row r="471" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="471" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B471" s="3">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C471" s="3" t="s">
         <v>462</v>
@@ -10398,9 +10398,9 @@
       </c>
       <c r="L471" s="1"/>
     </row>
-    <row r="472" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="472" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B472" s="3">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C472" s="3" t="s">
         <v>463</v>
@@ -10416,9 +10416,9 @@
       </c>
       <c r="L472" s="1"/>
     </row>
-    <row r="473" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="473" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B473" s="3">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C473" s="3" t="s">
         <v>464</v>
@@ -10434,9 +10434,9 @@
       </c>
       <c r="L473" s="1"/>
     </row>
-    <row r="474" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="474" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B474" s="3">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C474" s="3" t="s">
         <v>465</v>
@@ -10452,9 +10452,9 @@
       </c>
       <c r="L474" s="1"/>
     </row>
-    <row r="475" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="475" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B475" s="3">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C475" s="3" t="s">
         <v>466</v>
@@ -10470,9 +10470,9 @@
       </c>
       <c r="L475" s="1"/>
     </row>
-    <row r="476" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="476" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B476" s="3">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C476" s="3" t="s">
         <v>467</v>
@@ -10488,9 +10488,9 @@
       </c>
       <c r="L476" s="1"/>
     </row>
-    <row r="477" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="477" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B477" s="3">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C477" s="3" t="s">
         <v>468</v>
@@ -10506,9 +10506,9 @@
       </c>
       <c r="L477" s="1"/>
     </row>
-    <row r="478" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="478" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B478" s="3">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C478" s="3" t="s">
         <v>469</v>
@@ -10524,9 +10524,9 @@
       </c>
       <c r="L478" s="1"/>
     </row>
-    <row r="479" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="479" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B479" s="3">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C479" s="3" t="s">
         <v>470</v>
@@ -10542,9 +10542,9 @@
       </c>
       <c r="L479" s="1"/>
     </row>
-    <row r="480" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="480" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B480" s="3">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C480" s="3" t="s">
         <v>471</v>
@@ -10560,9 +10560,9 @@
       </c>
       <c r="L480" s="1"/>
     </row>
-    <row r="481" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="481" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B481" s="3">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C481" s="3" t="s">
         <v>472</v>
@@ -10578,9 +10578,9 @@
       </c>
       <c r="L481" s="1"/>
     </row>
-    <row r="482" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="482" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B482" s="3">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C482" s="3" t="s">
         <v>473</v>
@@ -10596,9 +10596,9 @@
       </c>
       <c r="L482" s="1"/>
     </row>
-    <row r="483" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="483" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B483" s="3">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C483" s="3" t="s">
         <v>474</v>
@@ -10614,9 +10614,9 @@
       </c>
       <c r="L483" s="1"/>
     </row>
-    <row r="484" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="484" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B484" s="3">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C484" s="3" t="s">
         <v>475</v>
@@ -10632,9 +10632,9 @@
       </c>
       <c r="L484" s="1"/>
     </row>
-    <row r="485" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="485" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B485" s="3">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C485" s="3" t="s">
         <v>476</v>
@@ -10650,9 +10650,9 @@
       </c>
       <c r="L485" s="1"/>
     </row>
-    <row r="486" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="486" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B486" s="3">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C486" s="3" t="s">
         <v>477</v>
@@ -10668,9 +10668,9 @@
       </c>
       <c r="L486" s="1"/>
     </row>
-    <row r="487" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="487" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B487" s="3">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C487" s="3" t="s">
         <v>478</v>
@@ -10686,9 +10686,9 @@
       </c>
       <c r="L487" s="1"/>
     </row>
-    <row r="488" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="488" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B488" s="3">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C488" s="3" t="s">
         <v>479</v>
@@ -10704,9 +10704,9 @@
       </c>
       <c r="L488" s="1"/>
     </row>
-    <row r="489" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="489" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B489" s="3">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C489" s="3" t="s">
         <v>480</v>
@@ -10722,9 +10722,9 @@
       </c>
       <c r="L489" s="1"/>
     </row>
-    <row r="490" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="490" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B490" s="3">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C490" s="3" t="s">
         <v>481</v>
@@ -10740,9 +10740,9 @@
       </c>
       <c r="L490" s="1"/>
     </row>
-    <row r="491" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="491" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B491" s="3">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C491" s="3" t="s">
         <v>482</v>
@@ -10758,9 +10758,9 @@
       </c>
       <c r="L491" s="1"/>
     </row>
-    <row r="492" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="492" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B492" s="3">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C492" s="3" t="s">
         <v>483</v>
@@ -10776,9 +10776,9 @@
       </c>
       <c r="L492" s="1"/>
     </row>
-    <row r="493" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="493" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B493" s="3">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C493" s="3" t="s">
         <v>484</v>
@@ -10794,9 +10794,9 @@
       </c>
       <c r="L493" s="1"/>
     </row>
-    <row r="494" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="494" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B494" s="3">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C494" s="3" t="s">
         <v>485</v>
@@ -10812,9 +10812,9 @@
       </c>
       <c r="L494" s="1"/>
     </row>
-    <row r="495" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="495" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B495" s="3">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C495" s="3" t="s">
         <v>486</v>
@@ -10830,9 +10830,9 @@
       </c>
       <c r="L495" s="1"/>
     </row>
-    <row r="496" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="496" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B496" s="3">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C496" s="3" t="s">
         <v>487</v>
@@ -10848,9 +10848,9 @@
       </c>
       <c r="L496" s="1"/>
     </row>
-    <row r="497" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="497" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B497" s="3">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C497" s="3" t="s">
         <v>488</v>
@@ -10866,9 +10866,9 @@
       </c>
       <c r="L497" s="1"/>
     </row>
-    <row r="498" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="498" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B498" s="3">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C498" s="3" t="s">
         <v>489</v>
@@ -10884,9 +10884,9 @@
       </c>
       <c r="L498" s="1"/>
     </row>
-    <row r="499" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="499" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B499" s="3">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C499" s="3" t="s">
         <v>490</v>
@@ -10902,9 +10902,9 @@
       </c>
       <c r="L499" s="1"/>
     </row>
-    <row r="500" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="500" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B500" s="3">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C500" s="3" t="s">
         <v>491</v>
@@ -10920,9 +10920,9 @@
       </c>
       <c r="L500" s="1"/>
     </row>
-    <row r="501" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="501" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B501" s="3">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C501" s="3" t="s">
         <v>492</v>
@@ -10938,9 +10938,9 @@
       </c>
       <c r="L501" s="1"/>
     </row>
-    <row r="502" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="502" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B502" s="3">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C502" s="3" t="s">
         <v>493</v>
@@ -10956,9 +10956,9 @@
       </c>
       <c r="L502" s="1"/>
     </row>
-    <row r="503" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="503" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B503" s="3">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C503" s="3" t="s">
         <v>494</v>
@@ -10974,9 +10974,9 @@
       </c>
       <c r="L503" s="1"/>
     </row>
-    <row r="504" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="504" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B504" s="3">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C504" s="3" t="s">
         <v>495</v>
@@ -10992,9 +10992,9 @@
       </c>
       <c r="L504" s="1"/>
     </row>
-    <row r="505" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="505" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B505" s="3">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C505" s="3" t="s">
         <v>496</v>
@@ -11010,9 +11010,9 @@
       </c>
       <c r="L505" s="1"/>
     </row>
-    <row r="506" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="506" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B506" s="3">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C506" s="3" t="s">
         <v>497</v>
@@ -11028,9 +11028,9 @@
       </c>
       <c r="L506" s="1"/>
     </row>
-    <row r="507" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="507" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B507" s="3">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C507" s="3" t="s">
         <v>498</v>
@@ -11046,9 +11046,9 @@
       </c>
       <c r="L507" s="1"/>
     </row>
-    <row r="508" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="508" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B508" s="3">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C508" s="3" t="s">
         <v>499</v>
@@ -11064,7 +11064,7 @@
       </c>
       <c r="L508" s="1"/>
     </row>
-    <row r="509" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="509" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B509" s="11" t="s">
         <v>505</v>
       </c>
